--- a/template/Template Uang Harian Dalam Kota_Kabupaten.xlsx
+++ b/template/Template Uang Harian Dalam Kota_Kabupaten.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Belajar Coding _Programmer\aplikasi-perjadin\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CC8C90-4602-4EAC-AC81-93A7D924237C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1824260-AA8B-41B0-95A1-A434B475E77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11140" yWindow="1680" windowWidth="8060" windowHeight="9120" xr2:uid="{DEF48955-3BAF-4228-8703-FD2D8BD68B24}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DEF48955-3BAF-4228-8703-FD2D8BD68B24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>NO</t>
   </si>
@@ -57,17 +57,44 @@
     <t>OH</t>
   </si>
   <si>
-    <t>Hongkong</t>
+    <t>Tanah Pinoh Barat</t>
+  </si>
+  <si>
+    <t>Tanah Pinoh</t>
+  </si>
+  <si>
+    <t>Sokan</t>
+  </si>
+  <si>
+    <t>Sayan</t>
+  </si>
+  <si>
+    <t>Menukung</t>
+  </si>
+  <si>
+    <t>Ella Hilir</t>
+  </si>
+  <si>
+    <t>Pinoh Selatan</t>
+  </si>
+  <si>
+    <t>Pinoh Utara</t>
+  </si>
+  <si>
+    <t>Belimbing</t>
+  </si>
+  <si>
+    <t>Belimbing Hulu</t>
+  </si>
+  <si>
+    <t>Nanga Pinoh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,9 +105,16 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Calibri "/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri "/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri "/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,28 +134,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -434,110 +478,345 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B390032-B230-4A08-864F-BDA9F30DEB48}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
-    <col min="8" max="8" width="25.453125" customWidth="1"/>
+    <col min="1" max="1" width="6" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" style="4" customWidth="1"/>
+    <col min="4" max="7" width="8.7265625" style="4"/>
+    <col min="8" max="8" width="25.453125" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="1" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2">
-        <v>200000</v>
-      </c>
-      <c r="E3" s="2">
-        <v>150000</v>
-      </c>
-      <c r="F3" s="2">
-        <v>500000</v>
-      </c>
-      <c r="G3" s="2">
-        <v>150000</v>
-      </c>
-      <c r="H3" s="2">
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
+      <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8">
+        <v>150000</v>
+      </c>
+      <c r="E3" s="8">
+        <v>150000</v>
+      </c>
+      <c r="F3" s="8">
+        <v>150000</v>
+      </c>
+      <c r="G3" s="8">
+        <v>150000</v>
+      </c>
+      <c r="H3" s="9">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="8">
+        <v>150000</v>
+      </c>
+      <c r="E4" s="8">
+        <v>150000</v>
+      </c>
+      <c r="F4" s="8">
+        <v>150000</v>
+      </c>
+      <c r="G4" s="8">
+        <v>150000</v>
+      </c>
+      <c r="H4" s="9">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="8">
+        <v>150000</v>
+      </c>
+      <c r="E5" s="8">
+        <v>150000</v>
+      </c>
+      <c r="F5" s="8">
+        <v>150000</v>
+      </c>
+      <c r="G5" s="8">
+        <v>150000</v>
+      </c>
+      <c r="H5" s="9">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="8">
+        <v>150000</v>
+      </c>
+      <c r="E6" s="8">
+        <v>150000</v>
+      </c>
+      <c r="F6" s="8">
+        <v>150000</v>
+      </c>
+      <c r="G6" s="8">
+        <v>150000</v>
+      </c>
+      <c r="H6" s="9">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="8">
+        <v>150000</v>
+      </c>
+      <c r="E7" s="8">
+        <v>150000</v>
+      </c>
+      <c r="F7" s="8">
+        <v>150000</v>
+      </c>
+      <c r="G7" s="8">
+        <v>150000</v>
+      </c>
+      <c r="H7" s="9">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="8">
+        <v>150000</v>
+      </c>
+      <c r="E8" s="8">
+        <v>150000</v>
+      </c>
+      <c r="F8" s="8">
+        <v>150000</v>
+      </c>
+      <c r="G8" s="8">
+        <v>150000</v>
+      </c>
+      <c r="H8" s="9">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="8">
+        <v>150000</v>
+      </c>
+      <c r="E9" s="8">
+        <v>150000</v>
+      </c>
+      <c r="F9" s="8">
+        <v>150000</v>
+      </c>
+      <c r="G9" s="8">
+        <v>150000</v>
+      </c>
+      <c r="H9" s="9">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="8">
+        <v>150000</v>
+      </c>
+      <c r="E10" s="8">
+        <v>150000</v>
+      </c>
+      <c r="F10" s="8">
+        <v>150000</v>
+      </c>
+      <c r="G10" s="8">
+        <v>150000</v>
+      </c>
+      <c r="H10" s="9">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="8">
+        <v>150000</v>
+      </c>
+      <c r="E11" s="8">
+        <v>150000</v>
+      </c>
+      <c r="F11" s="8">
+        <v>150000</v>
+      </c>
+      <c r="G11" s="8">
+        <v>150000</v>
+      </c>
+      <c r="H11" s="9">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="8">
+        <v>150000</v>
+      </c>
+      <c r="E12" s="8">
+        <v>150000</v>
+      </c>
+      <c r="F12" s="8">
+        <v>150000</v>
+      </c>
+      <c r="G12" s="8">
+        <v>150000</v>
+      </c>
+      <c r="H12" s="9">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="8">
+        <v>150000</v>
+      </c>
+      <c r="E13" s="8">
+        <v>150000</v>
+      </c>
+      <c r="F13" s="8">
+        <v>150000</v>
+      </c>
+      <c r="G13" s="8">
+        <v>150000</v>
+      </c>
+      <c r="H13" s="9">
+        <v>110000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
